--- a/contratos/contratos-12-2016.xlsx
+++ b/contratos/contratos-12-2016.xlsx
@@ -814,7 +814,7 @@
     <t>NALDO LOMBARDI  S.A.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ANALITICA S.A.</t>
@@ -1564,637 +1564,637 @@
     <t>304</t>
   </si>
   <si>
-    <t>2.580,00</t>
-  </si>
-  <si>
-    <t>22.910,00</t>
-  </si>
-  <si>
-    <t>7.845,00</t>
-  </si>
-  <si>
-    <t>68.223,50</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>441.045,00</t>
-  </si>
-  <si>
-    <t>432.000,00</t>
-  </si>
-  <si>
-    <t>354.000,00</t>
-  </si>
-  <si>
-    <t>258.000,00</t>
-  </si>
-  <si>
-    <t>15.895,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>4.689,90</t>
-  </si>
-  <si>
-    <t>520,49</t>
-  </si>
-  <si>
-    <t>2.688,00</t>
-  </si>
-  <si>
-    <t>4.950,00</t>
-  </si>
-  <si>
-    <t>1.610,00</t>
-  </si>
-  <si>
-    <t>446.294,51</t>
-  </si>
-  <si>
-    <t>68.019,00</t>
-  </si>
-  <si>
-    <t>106.788,39</t>
-  </si>
-  <si>
-    <t>48.983,00</t>
-  </si>
-  <si>
-    <t>60.162,00</t>
-  </si>
-  <si>
-    <t>51.876,00</t>
-  </si>
-  <si>
-    <t>6.387,77</t>
-  </si>
-  <si>
-    <t>9.550,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>352,24</t>
-  </si>
-  <si>
-    <t>12.350,00</t>
-  </si>
-  <si>
-    <t>39.370,00</t>
-  </si>
-  <si>
-    <t>35.703,89</t>
-  </si>
-  <si>
-    <t>8.200,00</t>
-  </si>
-  <si>
-    <t>234.280,00</t>
-  </si>
-  <si>
-    <t>18.011,50</t>
-  </si>
-  <si>
-    <t>739,19</t>
-  </si>
-  <si>
-    <t>65.350,00</t>
-  </si>
-  <si>
-    <t>6.720,00</t>
-  </si>
-  <si>
-    <t>220,78</t>
-  </si>
-  <si>
-    <t>444,83</t>
-  </si>
-  <si>
-    <t>30.320,00</t>
-  </si>
-  <si>
-    <t>6.971,24</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>4.519,97</t>
-  </si>
-  <si>
-    <t>49.176,55</t>
-  </si>
-  <si>
-    <t>1.440,00</t>
-  </si>
-  <si>
-    <t>40.600,00</t>
-  </si>
-  <si>
-    <t>9.814,82</t>
-  </si>
-  <si>
-    <t>925,50</t>
-  </si>
-  <si>
-    <t>154,61</t>
-  </si>
-  <si>
-    <t>564,90</t>
-  </si>
-  <si>
-    <t>12.097,27</t>
-  </si>
-  <si>
-    <t>970,00</t>
-  </si>
-  <si>
-    <t>11.831,05</t>
-  </si>
-  <si>
-    <t>1.058,52</t>
-  </si>
-  <si>
-    <t>4.120,76</t>
-  </si>
-  <si>
-    <t>99,80</t>
-  </si>
-  <si>
-    <t>14.282,48</t>
-  </si>
-  <si>
-    <t>7.370,00</t>
-  </si>
-  <si>
-    <t>2,28</t>
-  </si>
-  <si>
-    <t>5.207,15</t>
-  </si>
-  <si>
-    <t>8.279,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>815,00</t>
-  </si>
-  <si>
-    <t>3.915,00</t>
-  </si>
-  <si>
-    <t>4.797,00</t>
-  </si>
-  <si>
-    <t>41.148,00</t>
-  </si>
-  <si>
-    <t>482,88</t>
-  </si>
-  <si>
-    <t>652,08</t>
-  </si>
-  <si>
-    <t>5.450,00</t>
-  </si>
-  <si>
-    <t>17.189,87</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>6.536,00</t>
-  </si>
-  <si>
-    <t>14.800,00</t>
-  </si>
-  <si>
-    <t>75.952,72</t>
-  </si>
-  <si>
-    <t>1.436,00</t>
-  </si>
-  <si>
-    <t>1.177,00</t>
-  </si>
-  <si>
-    <t>19.270,00</t>
-  </si>
-  <si>
-    <t>26.750,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>2.430,00</t>
-  </si>
-  <si>
-    <t>4.560,00</t>
-  </si>
-  <si>
-    <t>171.528,00</t>
-  </si>
-  <si>
-    <t>526.097,59</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>10.800,00</t>
-  </si>
-  <si>
-    <t>138,29</t>
-  </si>
-  <si>
-    <t>33.385,71</t>
-  </si>
-  <si>
-    <t>311,00</t>
-  </si>
-  <si>
-    <t>4.112,80</t>
-  </si>
-  <si>
-    <t>3.250,00</t>
-  </si>
-  <si>
-    <t>3.189,40</t>
-  </si>
-  <si>
-    <t>10.925,00</t>
-  </si>
-  <si>
-    <t>2.643,50</t>
-  </si>
-  <si>
-    <t>6.892,55</t>
-  </si>
-  <si>
-    <t>3.496,00</t>
-  </si>
-  <si>
-    <t>11.328,20</t>
-  </si>
-  <si>
-    <t>1.091,00</t>
-  </si>
-  <si>
-    <t>945,00</t>
-  </si>
-  <si>
-    <t>229.000,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>25.194,60</t>
-  </si>
-  <si>
-    <t>34.716,12</t>
-  </si>
-  <si>
-    <t>102.981,00</t>
-  </si>
-  <si>
-    <t>126,50</t>
-  </si>
-  <si>
-    <t>6.689,08</t>
-  </si>
-  <si>
-    <t>1.764,70</t>
-  </si>
-  <si>
-    <t>6.631,00</t>
-  </si>
-  <si>
-    <t>11.365,10</t>
-  </si>
-  <si>
-    <t>2.056,00</t>
-  </si>
-  <si>
-    <t>4.211,56</t>
-  </si>
-  <si>
-    <t>7.395,97</t>
-  </si>
-  <si>
-    <t>8.762,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>2.520,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>1.850,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>75.600,00</t>
-  </si>
-  <si>
-    <t>23.750,00</t>
-  </si>
-  <si>
-    <t>36.577,00</t>
-  </si>
-  <si>
-    <t>7.204,26</t>
-  </si>
-  <si>
-    <t>13.240,00</t>
-  </si>
-  <si>
-    <t>130,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>23.500,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>924.000,00</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>9.700,00</t>
-  </si>
-  <si>
-    <t>777,31</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>4.058,00</t>
-  </si>
-  <si>
-    <t>916,46</t>
-  </si>
-  <si>
-    <t>9.210,00</t>
-  </si>
-  <si>
-    <t>909,09</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>18.674,50</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>2.420,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>3.150,00</t>
-  </si>
-  <si>
-    <t>403,92</t>
-  </si>
-  <si>
-    <t>4.180,00</t>
-  </si>
-  <si>
-    <t>3.279,10</t>
-  </si>
-  <si>
-    <t>4.966,00</t>
-  </si>
-  <si>
-    <t>3.546,00</t>
-  </si>
-  <si>
-    <t>1.103,37</t>
-  </si>
-  <si>
-    <t>5.900,00</t>
-  </si>
-  <si>
-    <t>12.200,00</t>
-  </si>
-  <si>
-    <t>460,00</t>
-  </si>
-  <si>
-    <t>410,00</t>
-  </si>
-  <si>
-    <t>7.095,74</t>
-  </si>
-  <si>
-    <t>69,57</t>
-  </si>
-  <si>
-    <t>844,00</t>
-  </si>
-  <si>
-    <t>1.320,00</t>
-  </si>
-  <si>
-    <t>8.487,00</t>
-  </si>
-  <si>
-    <t>944,50</t>
-  </si>
-  <si>
-    <t>19.325,00</t>
-  </si>
-  <si>
-    <t>876,00</t>
-  </si>
-  <si>
-    <t>1.260,00</t>
-  </si>
-  <si>
-    <t>392,00</t>
-  </si>
-  <si>
-    <t>127,00</t>
-  </si>
-  <si>
-    <t>6.048,00</t>
-  </si>
-  <si>
-    <t>16.480,00</t>
-  </si>
-  <si>
-    <t>4.252,00</t>
-  </si>
-  <si>
-    <t>4.550,00</t>
-  </si>
-  <si>
-    <t>8.494,54</t>
-  </si>
-  <si>
-    <t>17.039,99</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>100.000,00</t>
-  </si>
-  <si>
-    <t>15.350,00</t>
-  </si>
-  <si>
-    <t>305.174,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>8.822,51</t>
-  </si>
-  <si>
-    <t>5.362.312,48</t>
-  </si>
-  <si>
-    <t>55.400,00</t>
-  </si>
-  <si>
-    <t>249.380,00</t>
-  </si>
-  <si>
-    <t>232.380,00</t>
-  </si>
-  <si>
-    <t>400.380,00</t>
-  </si>
-  <si>
-    <t>568.380,00</t>
-  </si>
-  <si>
-    <t>368.380,00</t>
-  </si>
-  <si>
-    <t>169.113,04</t>
-  </si>
-  <si>
-    <t>1.490.938,33</t>
-  </si>
-  <si>
-    <t>1.300.000,00</t>
-  </si>
-  <si>
-    <t>54.859,91</t>
-  </si>
-  <si>
-    <t>400.196,84</t>
-  </si>
-  <si>
-    <t>359.539,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>17.391,06</t>
-  </si>
-  <si>
-    <t>48.040,00</t>
-  </si>
-  <si>
-    <t>18.400,00</t>
-  </si>
-  <si>
-    <t>535.038,40</t>
-  </si>
-  <si>
-    <t>13.506,14</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>1.110.080,00</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>14.600,00</t>
-  </si>
-  <si>
-    <t>38.000,00</t>
-  </si>
-  <si>
-    <t>19.700,00</t>
-  </si>
-  <si>
-    <t>5.561,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
+    <t>2580.00</t>
+  </si>
+  <si>
+    <t>22910.00</t>
+  </si>
+  <si>
+    <t>7845.00</t>
+  </si>
+  <si>
+    <t>68223.50</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>441045.00</t>
+  </si>
+  <si>
+    <t>432000.00</t>
+  </si>
+  <si>
+    <t>354000.00</t>
+  </si>
+  <si>
+    <t>258000.00</t>
+  </si>
+  <si>
+    <t>15895.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>4689.90</t>
+  </si>
+  <si>
+    <t>520.49</t>
+  </si>
+  <si>
+    <t>2688.00</t>
+  </si>
+  <si>
+    <t>4950.00</t>
+  </si>
+  <si>
+    <t>1610.00</t>
+  </si>
+  <si>
+    <t>446294.51</t>
+  </si>
+  <si>
+    <t>68019.00</t>
+  </si>
+  <si>
+    <t>106788.39</t>
+  </si>
+  <si>
+    <t>48983.00</t>
+  </si>
+  <si>
+    <t>60162.00</t>
+  </si>
+  <si>
+    <t>51876.00</t>
+  </si>
+  <si>
+    <t>6387.77</t>
+  </si>
+  <si>
+    <t>9550.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>352.24</t>
+  </si>
+  <si>
+    <t>12350.00</t>
+  </si>
+  <si>
+    <t>39370.00</t>
+  </si>
+  <si>
+    <t>35703.89</t>
+  </si>
+  <si>
+    <t>8200.00</t>
+  </si>
+  <si>
+    <t>234280.00</t>
+  </si>
+  <si>
+    <t>18011.50</t>
+  </si>
+  <si>
+    <t>739.19</t>
+  </si>
+  <si>
+    <t>65350.00</t>
+  </si>
+  <si>
+    <t>6720.00</t>
+  </si>
+  <si>
+    <t>220.78</t>
+  </si>
+  <si>
+    <t>444.83</t>
+  </si>
+  <si>
+    <t>30320.00</t>
+  </si>
+  <si>
+    <t>6971.24</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>4519.97</t>
+  </si>
+  <si>
+    <t>49176.55</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>40600.00</t>
+  </si>
+  <si>
+    <t>9814.82</t>
+  </si>
+  <si>
+    <t>925.50</t>
+  </si>
+  <si>
+    <t>154.61</t>
+  </si>
+  <si>
+    <t>564.90</t>
+  </si>
+  <si>
+    <t>12097.27</t>
+  </si>
+  <si>
+    <t>970.00</t>
+  </si>
+  <si>
+    <t>11831.05</t>
+  </si>
+  <si>
+    <t>1058.52</t>
+  </si>
+  <si>
+    <t>4120.76</t>
+  </si>
+  <si>
+    <t>99.80</t>
+  </si>
+  <si>
+    <t>14282.48</t>
+  </si>
+  <si>
+    <t>7370.00</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>5207.15</t>
+  </si>
+  <si>
+    <t>8279.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>815.00</t>
+  </si>
+  <si>
+    <t>3915.00</t>
+  </si>
+  <si>
+    <t>4797.00</t>
+  </si>
+  <si>
+    <t>41148.00</t>
+  </si>
+  <si>
+    <t>482.88</t>
+  </si>
+  <si>
+    <t>652.08</t>
+  </si>
+  <si>
+    <t>5450.00</t>
+  </si>
+  <si>
+    <t>17189.87</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>6536.00</t>
+  </si>
+  <si>
+    <t>14800.00</t>
+  </si>
+  <si>
+    <t>75952.72</t>
+  </si>
+  <si>
+    <t>1436.00</t>
+  </si>
+  <si>
+    <t>1177.00</t>
+  </si>
+  <si>
+    <t>19270.00</t>
+  </si>
+  <si>
+    <t>26750.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>2430.00</t>
+  </si>
+  <si>
+    <t>4560.00</t>
+  </si>
+  <si>
+    <t>171528.00</t>
+  </si>
+  <si>
+    <t>526097.59</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>10800.00</t>
+  </si>
+  <si>
+    <t>138.29</t>
+  </si>
+  <si>
+    <t>33385.71</t>
+  </si>
+  <si>
+    <t>311.00</t>
+  </si>
+  <si>
+    <t>4112.80</t>
+  </si>
+  <si>
+    <t>3250.00</t>
+  </si>
+  <si>
+    <t>3189.40</t>
+  </si>
+  <si>
+    <t>10925.00</t>
+  </si>
+  <si>
+    <t>2643.50</t>
+  </si>
+  <si>
+    <t>6892.55</t>
+  </si>
+  <si>
+    <t>3496.00</t>
+  </si>
+  <si>
+    <t>11328.20</t>
+  </si>
+  <si>
+    <t>1091.00</t>
+  </si>
+  <si>
+    <t>945.00</t>
+  </si>
+  <si>
+    <t>229000.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>25194.60</t>
+  </si>
+  <si>
+    <t>34716.12</t>
+  </si>
+  <si>
+    <t>102981.00</t>
+  </si>
+  <si>
+    <t>126.50</t>
+  </si>
+  <si>
+    <t>6689.08</t>
+  </si>
+  <si>
+    <t>1764.70</t>
+  </si>
+  <si>
+    <t>6631.00</t>
+  </si>
+  <si>
+    <t>11365.10</t>
+  </si>
+  <si>
+    <t>2056.00</t>
+  </si>
+  <si>
+    <t>4211.56</t>
+  </si>
+  <si>
+    <t>7395.97</t>
+  </si>
+  <si>
+    <t>8762.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>2520.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>75600.00</t>
+  </si>
+  <si>
+    <t>23750.00</t>
+  </si>
+  <si>
+    <t>36577.00</t>
+  </si>
+  <si>
+    <t>7204.26</t>
+  </si>
+  <si>
+    <t>13240.00</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>23500.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>924000.00</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>9700.00</t>
+  </si>
+  <si>
+    <t>777.31</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>4058.00</t>
+  </si>
+  <si>
+    <t>916.46</t>
+  </si>
+  <si>
+    <t>9210.00</t>
+  </si>
+  <si>
+    <t>909.09</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>18674.50</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>2420.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>3150.00</t>
+  </si>
+  <si>
+    <t>403.92</t>
+  </si>
+  <si>
+    <t>4180.00</t>
+  </si>
+  <si>
+    <t>3279.10</t>
+  </si>
+  <si>
+    <t>4966.00</t>
+  </si>
+  <si>
+    <t>3546.00</t>
+  </si>
+  <si>
+    <t>1103.37</t>
+  </si>
+  <si>
+    <t>5900.00</t>
+  </si>
+  <si>
+    <t>12200.00</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>410.00</t>
+  </si>
+  <si>
+    <t>7095.74</t>
+  </si>
+  <si>
+    <t>69.57</t>
+  </si>
+  <si>
+    <t>844.00</t>
+  </si>
+  <si>
+    <t>1320.00</t>
+  </si>
+  <si>
+    <t>8487.00</t>
+  </si>
+  <si>
+    <t>944.50</t>
+  </si>
+  <si>
+    <t>19325.00</t>
+  </si>
+  <si>
+    <t>876.00</t>
+  </si>
+  <si>
+    <t>1260.00</t>
+  </si>
+  <si>
+    <t>392.00</t>
+  </si>
+  <si>
+    <t>127.00</t>
+  </si>
+  <si>
+    <t>6048.00</t>
+  </si>
+  <si>
+    <t>16480.00</t>
+  </si>
+  <si>
+    <t>4252.00</t>
+  </si>
+  <si>
+    <t>4550.00</t>
+  </si>
+  <si>
+    <t>8494.54</t>
+  </si>
+  <si>
+    <t>17039.99</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>15350.00</t>
+  </si>
+  <si>
+    <t>305174.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>8822.51</t>
+  </si>
+  <si>
+    <t>5362312.48</t>
+  </si>
+  <si>
+    <t>55400.00</t>
+  </si>
+  <si>
+    <t>249380.00</t>
+  </si>
+  <si>
+    <t>232380.00</t>
+  </si>
+  <si>
+    <t>400380.00</t>
+  </si>
+  <si>
+    <t>568380.00</t>
+  </si>
+  <si>
+    <t>368380.00</t>
+  </si>
+  <si>
+    <t>169113.04</t>
+  </si>
+  <si>
+    <t>1490938.33</t>
+  </si>
+  <si>
+    <t>1300000.00</t>
+  </si>
+  <si>
+    <t>54859.91</t>
+  </si>
+  <si>
+    <t>400196.84</t>
+  </si>
+  <si>
+    <t>359539.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>17391.06</t>
+  </si>
+  <si>
+    <t>48040.00</t>
+  </si>
+  <si>
+    <t>18400.00</t>
+  </si>
+  <si>
+    <t>535038.40</t>
+  </si>
+  <si>
+    <t>13506.14</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1110080.00</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>14600.00</t>
+  </si>
+  <si>
+    <t>38000.00</t>
+  </si>
+  <si>
+    <t>19700.00</t>
+  </si>
+  <si>
+    <t>5561.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
   </si>
 </sst>
 </file>
